--- a/data/trans_dic/P1801_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1801_2016_2023-Dificultad-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.4434387365392944</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4123630738912991</v>
+        <v>0.4123630738912989</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.5714691701473248</v>
@@ -624,7 +624,7 @@
         <v>0.510981435616513</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.4852022214798166</v>
+        <v>0.4852022214798165</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4155775454541688</v>
+        <v>0.4133710509329804</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3628596966715489</v>
+        <v>0.3649407592508538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5427691987087462</v>
+        <v>0.5463602765598571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5071957769423207</v>
+        <v>0.5068233596756575</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4897836139317837</v>
+        <v>0.4910853656464344</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4575888677977814</v>
+        <v>0.4542114210785733</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4753180774547849</v>
+        <v>0.4740330661992322</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4585789466964134</v>
+        <v>0.4587634157308382</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5989169218038225</v>
+        <v>0.600955516147464</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.583317751359277</v>
+        <v>0.5810339827130878</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5321126963807415</v>
+        <v>0.5305547714031276</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5160393244473561</v>
+        <v>0.5161990205848548</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.5230145137685841</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.460162646448741</v>
+        <v>0.4601626464487409</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4365393279103606</v>
+        <v>0.4381891913833607</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3716898231931337</v>
+        <v>0.3726431880369382</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.537890128525027</v>
+        <v>0.5376248719410209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4784927839575485</v>
+        <v>0.4776125357013938</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4980981743312295</v>
+        <v>0.5011092454122051</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4403531542421248</v>
+        <v>0.4372179969799934</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5035497476337104</v>
+        <v>0.5031466217106539</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4422534308579566</v>
+        <v>0.4422032672642719</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6048968152009082</v>
+        <v>0.6024449993598567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5295895218459679</v>
+        <v>0.5319624893435216</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5450021902873373</v>
+        <v>0.5462508370644542</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4806989890010305</v>
+        <v>0.4803981080358873</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.5546862228116355</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5353013477203583</v>
+        <v>0.5353013477203582</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4615809591608037</v>
+        <v>0.456960817036288</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4692414538708748</v>
+        <v>0.4707715873633963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5819625239182664</v>
+        <v>0.5813450297105861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5412646048919366</v>
+        <v>0.5387807150531957</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5285932477663388</v>
+        <v>0.5266927710478589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5128987724046778</v>
+        <v>0.5138876980256714</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5301293926096066</v>
+        <v>0.5312310146932541</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5367923495440133</v>
+        <v>0.537530632731006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6545334961012668</v>
+        <v>0.6537162426487029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5950364954730997</v>
+        <v>0.5937587398371946</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5788852724369326</v>
+        <v>0.5793994421930497</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5557742449710158</v>
+        <v>0.5577401802067302</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.4504878331854111</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5685131105336302</v>
+        <v>0.5685131105336301</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.4945496056824747</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4013801319401551</v>
+        <v>0.4003849422084189</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5301797697575312</v>
+        <v>0.534217999196006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.447358860367183</v>
+        <v>0.4526702972893044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5946453788913597</v>
+        <v>0.5918147360263204</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4424611040849411</v>
+        <v>0.4371626197951141</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.570037423002417</v>
+        <v>0.5709475270859005</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4925827754038019</v>
+        <v>0.4911072472760559</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6043727038887736</v>
+        <v>0.6064064895024512</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.538185097551712</v>
+        <v>0.5435756279508227</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6525718667799726</v>
+        <v>0.6527343483510332</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5060871716882388</v>
+        <v>0.5023856417365327</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6207016889559672</v>
+        <v>0.6185062818233316</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.5188214079829265</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.5213285448274732</v>
+        <v>0.5213285448274734</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4461268221235901</v>
+        <v>0.4475227115984375</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4625095029670575</v>
+        <v>0.4629454975161544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5562780122405624</v>
+        <v>0.5555734170811628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5427923296892256</v>
+        <v>0.544194690464294</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5053695171441143</v>
+        <v>0.50741608485014</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5091503259123782</v>
+        <v>0.5093657308966834</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4817631257874182</v>
+        <v>0.4826770478981937</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5016496400677447</v>
+        <v>0.5009035614680724</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5899889291277463</v>
+        <v>0.589677462871866</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5738533886222149</v>
+        <v>0.5750097304284612</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.531545112900591</v>
+        <v>0.5307963461907576</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5329770660500218</v>
+        <v>0.5324777354873728</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>468770</v>
+        <v>466281</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>180972</v>
+        <v>182010</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>683651</v>
+        <v>688174</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>315380</v>
+        <v>315148</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1169387</v>
+        <v>1172495</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>512751</v>
+        <v>508967</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>536157</v>
+        <v>534708</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>228711</v>
+        <v>228803</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>754372</v>
+        <v>756940</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>362713</v>
+        <v>361293</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1270450</v>
+        <v>1266730</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>578248</v>
+        <v>578427</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>396738</v>
+        <v>398237</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>356475</v>
+        <v>357389</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>541373</v>
+        <v>541106</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>532107</v>
+        <v>531128</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>954007</v>
+        <v>959775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>912022</v>
+        <v>905529</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>457639</v>
+        <v>457272</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>424150</v>
+        <v>424102</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>608814</v>
+        <v>606346</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>588929</v>
+        <v>591568</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1043843</v>
+        <v>1046234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>995583</v>
+        <v>994960</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>380231</v>
+        <v>376426</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>490545</v>
+        <v>492145</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>448727</v>
+        <v>448251</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>567052</v>
+        <v>564449</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>843010</v>
+        <v>839979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1073519</v>
+        <v>1075589</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>436699</v>
+        <v>437606</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>561163</v>
+        <v>561935</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>504684</v>
+        <v>504054</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>623385</v>
+        <v>622047</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>923217</v>
+        <v>924037</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1163259</v>
+        <v>1167374</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>203380</v>
+        <v>202875</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>516820</v>
+        <v>520757</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>219071</v>
+        <v>221672</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>539945</v>
+        <v>537374</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>440867</v>
+        <v>435588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1073273</v>
+        <v>1074987</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>249592</v>
+        <v>248845</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>589144</v>
+        <v>591126</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>263548</v>
+        <v>266188</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>592542</v>
+        <v>592690</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>504264</v>
+        <v>500576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1168665</v>
+        <v>1164531</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1502235</v>
+        <v>1506935</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1608612</v>
+        <v>1610128</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1961877</v>
+        <v>1959392</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2002638</v>
+        <v>2007812</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3484055</v>
+        <v>3498165</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3649345</v>
+        <v>3650889</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1622232</v>
+        <v>1625310</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1744741</v>
+        <v>1742147</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2080768</v>
+        <v>2079670</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2117238</v>
+        <v>2121505</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3664512</v>
+        <v>3659350</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3820123</v>
+        <v>3816544</v>
       </c>
     </row>
     <row r="24">
